--- a/data/Subset 1/Math HK2 transcript.xlsx
+++ b/data/Subset 1/Math HK2 transcript.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G691"/>
+  <dimension ref="A1:G690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -11646,20 +11646,20 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>00:22:27</t>
+          <t>00:22:28</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>[Bell]</t>
+          <t>One to four first.</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -11675,11 +11675,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>00:22:28</t>
+          <t>00:22:32</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>One to four first.</t>
+          <t>Check the answers when you are done.</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -11704,11 +11704,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>00:22:32</t>
+          <t>00:23:57</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -11717,12 +11717,12 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Check the answers when you are done.</t>
+          <t>You have to circle- to circle equation one and equation two or else it will be confused as numbers one and two, right?</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G389" t="inlineStr"/>
@@ -11733,11 +11733,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>00:23:57</t>
+          <t>00:24:22</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -11746,12 +11746,12 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>You have to circle- to circle equation one and equation two or else it will be confused as numbers one and two, right?</t>
+          <t>Chan Lap Man, come up and do question number two.</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G390" t="inlineStr"/>
@@ -11762,11 +11762,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>00:24:22</t>
+          <t>00:24:26</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -11775,12 +11775,12 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Chan Lap Man, come up and do question number two.</t>
+          <t>Did you hear?</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G391" t="inlineStr"/>
@@ -11791,28 +11791,28 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>00:24:26</t>
+          <t>00:24:27</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Did you hear?</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G392" t="inlineStr"/>
+          <t>Number two.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -11824,24 +11824,24 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Number two.</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr"/>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>After you have finished.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -11849,11 +11849,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>00:24:27</t>
+          <t>00:24:58</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>After you have finished.</t>
+          <t>Hey.</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -11882,24 +11882,24 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Hey.</t>
-        </is>
-      </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G395" t="inlineStr"/>
+          <t>Yes?</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -11907,28 +11907,28 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>00:24:58</t>
+          <t>00:24:59</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Yes?</t>
-        </is>
-      </c>
-      <c r="F396" t="inlineStr"/>
-      <c r="G396" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>You haven't given it a name.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -11936,20 +11936,20 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>00:24:59</t>
+          <t>00:25:00</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>You haven't given it a name.</t>
+          <t>Oh, yeah, that's right.</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -11965,20 +11965,20 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:26:34</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Oh, yeah, that's right.</t>
+          <t>Chan Lap Man, hurry up.</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -11994,28 +11994,28 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>00:26:34</t>
+          <t>00:26:56</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Chan Lap Man, hurry up.</t>
-        </is>
-      </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G399" t="inlineStr"/>
+          <t>Question number three (inaudible).</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -12023,28 +12023,28 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>00:26:56</t>
+          <t>00:26:57</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Question number three (inaudible).</t>
-        </is>
-      </c>
-      <c r="F400" t="inlineStr"/>
-      <c r="G400" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Come up and do question number three later.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -12052,28 +12052,28 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>00:26:57</t>
+          <t>00:27:02</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Come up and do question number three later.</t>
-        </is>
-      </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G401" t="inlineStr"/>
+          <t>(inaudible)</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -12081,28 +12081,28 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>00:27:02</t>
+          <t>00:27:03</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F402" t="inlineStr"/>
-      <c r="G402" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Yes?</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2 - keeping everyone together</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -12110,28 +12110,28 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>00:27:03</t>
+          <t>00:27:05</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Yes?</t>
-        </is>
-      </c>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr"/>
+          <t>(inaudible) X is (inaudible).</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -12139,28 +12139,28 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>00:27:05</t>
+          <t>00:27:06</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>(inaudible) X is (inaudible).</t>
-        </is>
-      </c>
-      <c r="F404" t="inlineStr"/>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Name equation one and equation two first.</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -12168,11 +12168,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>00:27:06</t>
+          <t>00:27:14</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Name equation one and equation two first.</t>
+          <t>Yep.</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -12197,11 +12197,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>00:27:14</t>
+          <t>00:27:15</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Yep.</t>
+          <t>You have to tell me which equation minus that equation first.</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -12239,12 +12239,12 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>You have to tell me which equation minus that equation first.</t>
+          <t>How do you work this out?</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G407" t="inlineStr"/>
@@ -12268,12 +12268,12 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>How do you work this out?</t>
+          <t>Two X is equal to 12.</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G408" t="inlineStr"/>
@@ -12284,28 +12284,32 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>00:27:15</t>
+          <t>00:27:20</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Two X is equal to 12.</t>
+          <t>Addition.</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G409" t="inlineStr"/>
+          <t>7 - context</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -12313,15 +12317,15 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>00:27:20</t>
+          <t>00:27:21</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -12331,14 +12335,10 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>7 - context</t>
-        </is>
-      </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>4 - restating</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -12359,12 +12359,12 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Addition.</t>
+          <t>In that case, write one plus two.</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>4 - restating</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G411" t="inlineStr"/>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>In that case, write one plus two.</t>
+          <t>Equation one plus equation two.</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Equation one plus equation two.</t>
+          <t>Right.</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Right.</t>
+          <t>Colon.</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -12462,11 +12462,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>00:27:21</t>
+          <t>00:27:29</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Colon.</t>
+          <t>Next, um, it is equal to six.</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Next, um, it is equal to six.</t>
+          <t>Substitute X is equal to six back into the equation.</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -12520,28 +12520,28 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>00:27:29</t>
+          <t>00:27:33</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Substitute X is equal to six back into the equation.</t>
-        </is>
-      </c>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G417" t="inlineStr"/>
+          <t>This X is equal to six, so... it becomes six minus Y is 10...</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>5 - providing evidence/providing reasoning</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -12549,28 +12549,28 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>00:27:33</t>
+          <t>00:27:42</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>This X is equal to six, so... it becomes six minus Y is 10...</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr"/>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>5 - providing evidence/providing reasoning</t>
-        </is>
-      </c>
+          <t>So, you move six to here and why can't you subtract them?</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>9 - press for reasoning</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -12591,12 +12591,12 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>So, you move six to here and why can't you subtract them?</t>
+          <t>Y can be a negative number, right?</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>9 - press for reasoning</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G419" t="inlineStr"/>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Y can be a negative number, right?</t>
+          <t>Can Y be negative four?</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -12636,28 +12636,28 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>00:27:42</t>
+          <t>00:27:49</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Can Y be negative four?</t>
-        </is>
-      </c>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G421" t="inlineStr"/>
+          <t>Um, that is right.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -12665,20 +12665,20 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>00:27:49</t>
+          <t>00:27:53</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Um, that is right.</t>
+          <t>Can I erase this?</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
@@ -12694,28 +12694,28 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>00:27:53</t>
+          <t>00:27:55</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Can I erase this?</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Erase it.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -12781,11 +12781,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>00:27:55</t>
+          <t>00:27:58</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Erase it.</t>
+          <t>Erase the ones I wrote on the top too.</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -12810,11 +12810,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>00:27:58</t>
+          <t>00:28:03</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -12839,11 +12839,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>00:28:03</t>
+          <t>00:28:05</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Erase the ones I wrote on the top too.</t>
+          <t>Erase example four too.</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -12868,11 +12868,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>00:28:05</t>
+          <t>00:28:55</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Erase example four too.</t>
+          <t>Chan Lap Man, it is a colon after your equation one minus equation two- it's a colon, don't write it like an equal sign.</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -12897,11 +12897,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>00:28:55</t>
+          <t>00:29:03</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Chan Lap Man, it is a colon after your equation one minus equation two- it's a colon, don't write it like an equal sign.</t>
+          <t>Conversely, your equal sign is like a colon.</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Conversely, your equal sign is like a colon.</t>
+          <t>Write the equal sign in a better way.</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -12955,11 +12955,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>00:29:03</t>
+          <t>00:29:37</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Write the equal sign in a better way.</t>
+          <t>Question number two is correct.</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -12997,7 +12997,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Question number two is correct.</t>
+          <t>Pretty well done.</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Pretty well done.</t>
+          <t>However there are some places that are not well written- written- written.</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>However there are some places that are not well written- written- written.</t>
+          <t>Not clearly written.</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -13071,11 +13071,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>00:29:37</t>
+          <t>00:29:44</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Not clearly written.</t>
+          <t>What is that thing down there?</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -13113,12 +13113,12 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>What is that thing down there?</t>
+          <t>Is that a one- one under the (inaudible)?</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G437" t="inlineStr"/>
@@ -13129,28 +13129,28 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>00:29:44</t>
+          <t>00:29:48</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Is that a one- one under the (inaudible)?</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G438" t="inlineStr"/>
+          <t>X equals to one.</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -13158,28 +13158,28 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>00:29:48</t>
+          <t>00:29:49</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>X equals to one.</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>No.</t>
+          <t>Here.</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Here.</t>
+          <t>Why is it- here- here, what is this?</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -13245,28 +13245,28 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>00:29:49</t>
+          <t>00:29:53</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Why is it- here- here, what is this?</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G442" t="inlineStr"/>
+          <t>Nothing.</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -13278,24 +13278,24 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Nothing.</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>You did not write that?</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2 - keeping everyone together</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>00:29:53</t>
+          <t>00:30:04</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>You did not write that?</t>
+          <t>Ten A equals 30.</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G444" t="inlineStr"/>
@@ -13332,11 +13332,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>00:30:04</t>
+          <t>00:30:12</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Ten A equals 30.</t>
+          <t>Three...</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -13361,11 +13361,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>00:30:12</t>
+          <t>00:30:22</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -13374,12 +13374,12 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Three...</t>
+          <t>Any questions?</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G446" t="inlineStr"/>
@@ -13390,11 +13390,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>00:30:22</t>
+          <t>00:30:26</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Any questions?</t>
+          <t>Are all four questions completed?</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -13419,28 +13419,28 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>00:30:26</t>
+          <t>00:30:28</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Are all four questions completed?</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr"/>
+          <t>(inaudible)</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -13448,28 +13448,28 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>00:30:28</t>
+          <t>00:30:34</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Check your answers with the ones on the blackboard.</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -13490,7 +13490,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Check your answers with the ones on the blackboard.</t>
+          <t>Both of them are correct.</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -13519,7 +13519,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Both of them are correct.</t>
+          <t>Pretty good.</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -13535,11 +13535,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>00:30:34</t>
+          <t>00:31:11</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Pretty good.</t>
+          <t>Here.</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Here.</t>
+          <t>Of course you cannot find the answer by adding the two equations together.</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -13606,12 +13606,12 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Of course you cannot find the answer by adding the two equations together.</t>
+          <t>What do you expect to be eliminated by adding the two equations together?</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G454" t="inlineStr"/>
@@ -13635,12 +13635,12 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>What do you expect to be eliminated by adding the two equations together?</t>
+          <t>X plus X is two X.</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G455" t="inlineStr"/>
@@ -13651,11 +13651,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>00:31:11</t>
+          <t>00:31:20</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>X plus X is two X.</t>
+          <t>Six Y plus two Y is eight Y.</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Six Y plus two Y is eight Y.</t>
+          <t>You cannot cancel them.</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>You cannot cancel them.</t>
+          <t>With six Y and two Y, no matter whether you use addition or subtraction, you cannot cancel it.</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -13738,11 +13738,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>00:31:20</t>
+          <t>00:31:27</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>With six Y and two Y, no matter whether you use addition or subtraction, you cannot cancel it.</t>
+          <t>Look, six Y plus two Y is eight Y and subtraction will leave four Y.</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Look, six Y plus two Y is eight Y and subtraction will leave four Y.</t>
+          <t>The Y will still be there.</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -13796,11 +13796,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>00:31:27</t>
+          <t>00:31:34</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>The Y will still be there.</t>
+          <t>On the other hand, there are two X.</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>On the other hand, there are two X.</t>
+          <t>Both X are positive.</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -13854,11 +13854,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>00:31:34</t>
+          <t>00:31:37</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Both X are positive.</t>
+          <t>If you use subtraction, the X will be cancelled.</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>If you use subtraction, the X will be cancelled.</t>
+          <t>Therefore, you should never use addition- addition to calculate this question.</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -13912,11 +13912,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>00:31:37</t>
+          <t>00:31:44</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Therefore, you should never use addition- addition to calculate this question.</t>
+          <t>If you use addition, nothing will be cancelled- nothing will be eliminated.</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -13954,7 +13954,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>If you use addition, nothing will be cancelled- nothing will be eliminated.</t>
+          <t>If and only if you use subtraction, then you will make it.</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -13970,11 +13970,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>00:31:44</t>
+          <t>00:31:51</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>If and only if you use subtraction, then you will make it.</t>
+          <t>Right?</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Right?</t>
+          <t>Do not mindlessly use addition all the time.</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -14028,11 +14028,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>00:31:51</t>
+          <t>00:31:53</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -14041,12 +14041,12 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Do not mindlessly use addition all the time.</t>
+          <t>You have to see if anything will be cancelled, right?</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G469" t="inlineStr"/>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>You have to see if anything will be cancelled, right?</t>
+          <t>Here, it is for sure that only X will be cancelled, right?</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -14086,11 +14086,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>00:31:53</t>
+          <t>00:32:09</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Here, it is for sure that only X will be cancelled, right?</t>
+          <t>Finished?</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Finished?</t>
+          <t>Raise your hand if you have not finished.</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -14173,11 +14173,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>00:32:09</t>
+          <t>00:32:18</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Raise your hand if you have not finished.</t>
+          <t>Raise hand.</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -14202,28 +14202,28 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>00:32:18</t>
+          <t>00:32:19</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Raise hand.</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr"/>
+          <t>(inaudible)</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -14231,28 +14231,28 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>00:32:19</t>
+          <t>00:32:29</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Take a look at the example if you have finished.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Take a look at the example if you have finished.</t>
+          <t>Example five.</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -14289,11 +14289,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>00:32:29</t>
+          <t>00:32:51</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Example five.</t>
+          <t>Student on duty, clean up the blackboard.</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -14318,28 +14318,28 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>00:32:51</t>
+          <t>00:32:55</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Student on duty, clean up the blackboard.</t>
-        </is>
-      </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G479" t="inlineStr"/>
+          <t>(inaudible)</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -14347,11 +14347,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>00:32:55</t>
+          <t>00:32:56</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -14360,13 +14360,13 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
+          <t>No, the upper one times the lower one.</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>4 - making a claim</t>
         </is>
       </c>
     </row>
@@ -14376,11 +14376,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>00:32:56</t>
+          <t>00:32:58</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -14389,13 +14389,13 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>No, the upper one times the lower one.</t>
+          <t>(inaudible)</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>4 - making a claim</t>
+          <t>1 - none</t>
         </is>
       </c>
     </row>
@@ -14405,28 +14405,28 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>00:32:58</t>
+          <t>00:32:59</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Are there any questions?</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>2 - keeping everyone together</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -14434,28 +14434,28 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>00:32:59</t>
+          <t>00:33:00</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Are there any questions?</t>
-        </is>
-      </c>
-      <c r="F483" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G483" t="inlineStr"/>
+          <t>The one on the bottom...</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -14463,28 +14463,28 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>00:33:00</t>
+          <t>00:33:02</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>The one on the bottom...</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Are there any questions?</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>2 - keeping everyone together</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -14492,11 +14492,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>00:33:02</t>
+          <t>00:33:14</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Are there any questions?</t>
+          <t>Finished yet?</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -14521,11 +14521,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>00:33:14</t>
+          <t>00:33:20</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -14534,12 +14534,12 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Finished yet?</t>
+          <t>Why are you so slow?</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G486" t="inlineStr"/>
@@ -14550,11 +14550,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>00:33:20</t>
+          <t>00:33:30</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Why are you so slow?</t>
+          <t>Hey, why are you lying on the table?</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -14579,11 +14579,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>00:33:30</t>
+          <t>00:33:35</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -14592,12 +14592,12 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Hey, why are you lying on the table?</t>
+          <t>Finished?</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G488" t="inlineStr"/>
@@ -14608,11 +14608,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>00:33:35</t>
+          <t>00:34:13</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -14621,12 +14621,12 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Finished?</t>
+          <t>I will not wait for you due to the time constraint.</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G489" t="inlineStr"/>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>I will not wait for you due to the time constraint.</t>
+          <t>Stop for a moment.</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -14679,12 +14679,12 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Stop for a moment.</t>
+          <t>Calculating number four- for those of you who have not finished, are you doing number four?</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G491" t="inlineStr"/>
@@ -14695,28 +14695,28 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>00:34:13</t>
+          <t>00:34:22</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Calculating number four- for those of you who have not finished, are you doing number four?</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G492" t="inlineStr"/>
+          <t>I am doing number five.</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -14724,28 +14724,28 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>00:34:22</t>
+          <t>00:34:23</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>I am doing number five.</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Stop for a moment.</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Stop for a moment.</t>
+          <t>Please take a look at example five.</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -14795,7 +14795,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Please take a look at example five.</t>
+          <t>Page 117.</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -14840,11 +14840,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>00:34:23</t>
+          <t>00:34:32</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Page 117.</t>
+          <t>Now, this equation- this question is slightly different from the previous ones.</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -14869,11 +14869,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>00:34:32</t>
+          <t>00:34:38</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Now, this equation- this question is slightly different from the previous ones.</t>
+          <t>It is because, you will find out that when you add the two equations together.</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>It is because, you will find out that when you add the two equations together.</t>
+          <t>Two X plus X is three X.</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Two X plus X is three X.</t>
+          <t>It cannot be eliminate- eliminated- cannot eliminate the X.</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -14956,11 +14956,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>00:34:38</t>
+          <t>00:34:51</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>It cannot be eliminate- eliminated- cannot eliminate the X.</t>
+          <t>This one plus this one will leave a Y here.</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -14998,12 +14998,12 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>This one plus this one will leave a Y here.</t>
+          <t>Three Y plus negative two Y, right?</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G502" t="inlineStr"/>
@@ -15027,12 +15027,12 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Three Y plus negative two Y, right?</t>
+          <t>The biggest question is that this is a three but that is not a three, right.</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G503" t="inlineStr"/>
@@ -15043,11 +15043,11 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>00:34:51</t>
+          <t>00:35:00</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>The biggest question is that this is a three but that is not a three, right.</t>
+          <t>This is a two but that is not a two.</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -15076,7 +15076,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>This is a two but that is not a two.</t>
+          <t>This is a two but that is a one, right.</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -15114,7 +15114,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>This is a two but that is a one, right.</t>
+          <t>If you subtract the two equations, the unknown will not be cancelled.</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -15130,11 +15130,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:35:10</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>If you subtract the two equations, the unknown will not be cancelled.</t>
+          <t>When this is the case- which is quite common- of course, you can ask me whether you can use the previous method of substitution.</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>When this is the case- which is quite common- of course, you can ask me whether you can use the previous method of substitution.</t>
+          <t>Of course you can.</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -15188,11 +15188,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>00:35:10</t>
+          <t>00:35:19</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>Of course you can.</t>
+          <t>However, we are learning the method of elimination now.</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -15230,12 +15230,12 @@
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>However, we are learning the method of elimination now.</t>
+          <t>So, if we have to use the method of elimination in this case, how do we do it?</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G510" t="inlineStr"/>
@@ -15246,11 +15246,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>00:35:19</t>
+          <t>00:35:26</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -15259,12 +15259,12 @@
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>So, if we have to use the method of elimination in this case, how do we do it?</t>
+          <t>Here, the biggest question is that this is two, this is one, this is three and this is two.</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G511" t="inlineStr"/>
@@ -15288,12 +15288,12 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Here, the biggest question is that this is two, this is one, this is three and this is two.</t>
+          <t>They are all different, right?</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G512" t="inlineStr"/>
@@ -15304,11 +15304,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>00:35:26</t>
+          <t>00:35:33</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>They are all different, right?</t>
+          <t>If they were the same number, we could find some ways to use addition or subtraction to eliminate, is that right?</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -15346,12 +15346,12 @@
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>If they were the same number, we could find some ways to use addition or subtraction to eliminate, is that right?</t>
+          <t>Is there any way to make them the same?</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G514" t="inlineStr"/>
@@ -15362,28 +15362,28 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>00:35:33</t>
+          <t>00:35:39</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Is there any way to make them the same?</t>
-        </is>
-      </c>
-      <c r="F515" t="inlineStr">
-        <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G515" t="inlineStr"/>
+          <t>Multiplication.</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -15391,28 +15391,28 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>00:35:39</t>
+          <t>00:35:40</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Multiplication.</t>
-        </is>
-      </c>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>I said it yesterday.</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -15433,7 +15433,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>I said it yesterday.</t>
+          <t>What I said yesterday is mainly for today's lesson.</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -15449,11 +15449,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>00:35:40</t>
+          <t>00:35:44</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>What I said yesterday is mainly for today's lesson.</t>
+          <t>What we learned yesterday can be- of course- used to solve mathematical problems, but today we can use it too.</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -15478,11 +15478,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>00:35:44</t>
+          <t>00:35:50</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -15491,12 +15491,12 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>What we learned yesterday can be- of course- used to solve mathematical problems, but today we can use it too.</t>
+          <t>If the numbers are not the same, we can think of some ways to make them bigger, right?</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G519" t="inlineStr"/>
@@ -15520,12 +15520,12 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>If the numbers are not the same, we can think of some ways to make them bigger, right?</t>
+          <t>For example, if I want to eliminate the X but this is two and this is one.</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G520" t="inlineStr"/>
@@ -15536,11 +15536,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>00:35:50</t>
+          <t>00:36:00</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -15549,12 +15549,12 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>For example, if I want to eliminate the X but this is two and this is one.</t>
+          <t>If I turn the one into two, then, both of them will be two, right?</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G521" t="inlineStr"/>
@@ -15578,12 +15578,12 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>If I turn the one into two, then, both of them will be two, right?</t>
+          <t>In another words, if I turn this into two, we have multiplied it by two.</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G522" t="inlineStr"/>
@@ -15607,12 +15607,12 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>In another words, if I turn this into two, we have multiplied it by two.</t>
+          <t>Therefore, the rest of the equation will be...?</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G523" t="inlineStr"/>
@@ -15623,28 +15623,32 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>00:36:00</t>
+          <t>00:36:09</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Therefore, the rest of the equation will be...?</t>
+          <t>Multiplied by two.</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G524" t="inlineStr"/>
+          <t>7 - context</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -15652,15 +15656,15 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>00:36:09</t>
+          <t>00:36:10</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -15670,14 +15674,10 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>7 - context</t>
-        </is>
-      </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>4 - restating</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -15698,12 +15698,12 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Multiplied by two.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>4 - restating</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G526" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>So, I need to solve equation number two first.</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -15756,7 +15756,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>So, I need to solve equation number two first.</t>
+          <t>Multiplied it by two first.</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>Multiplied it by two first.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -15801,11 +15801,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>00:36:10</t>
+          <t>00:36:18</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>Equation two times two.</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -15843,12 +15843,12 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Equation two times two.</t>
+          <t>After multiplied by two, the first part will be two X and what about the second part?</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G531" t="inlineStr"/>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>After multiplied by two, the first part will be two X and what about the second part?</t>
+          <t>Chan Kwan Wu, after multiplied by two- after multiplied by two...?</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -15888,28 +15888,28 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>00:36:18</t>
+          <t>00:36:29</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>Chan Kwan Wu, after multiplied by two- after multiplied by two...?</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G533" t="inlineStr"/>
+          <t>The second part... uh, positive four Y.</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -15917,28 +15917,28 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>00:36:29</t>
+          <t>00:36:34</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>The second part... uh, positive four Y.</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>Four Y and then?</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>8 - press for  accuracy</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -15946,28 +15946,32 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>00:36:34</t>
+          <t>00:36:36</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Four Y and then?</t>
+          <t>Twenty-four.</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G535" t="inlineStr"/>
+          <t>7 - context</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -15975,32 +15979,28 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>00:36:36</t>
+          <t>00:36:37</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>Twenty-four.</t>
+          <t>Twenty-four, right.</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>7 - context</t>
-        </is>
-      </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>5 - revoicing</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -16021,12 +16021,12 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Twenty-four, right.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>5 - revoicing</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G537" t="inlineStr"/>
@@ -16050,12 +16050,12 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>Now, we have formed a new equation, right?</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G538" t="inlineStr"/>
@@ -16079,12 +16079,12 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Now, we have formed a new equation, right?</t>
+          <t>Let me give it a name.</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G539" t="inlineStr"/>
@@ -16108,7 +16108,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>Let me give it a name.</t>
+          <t>Equation number three.</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>Equation number three.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -16153,11 +16153,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>00:36:37</t>
+          <t>00:36:43</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>So, now, I will not look at equation number two anymore.</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -16182,11 +16182,11 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>00:36:43</t>
+          <t>00:36:45</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -16195,12 +16195,12 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>So, now, I will not look at equation number two anymore.</t>
+          <t>Since it is turned into equation number three, okay?</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G543" t="inlineStr"/>
@@ -16224,12 +16224,12 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>Since it is turned into equation number three, okay?</t>
+          <t>So this is two X and that is two X too.</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G544" t="inlineStr"/>
@@ -16253,12 +16253,12 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>So this is two X and that is two X too.</t>
+          <t>What do we do next?</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G545" t="inlineStr"/>
@@ -16269,11 +16269,11 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>00:36:45</t>
+          <t>00:36:51</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -16282,12 +16282,12 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>What do we do next?</t>
+          <t>Lo Pak Man.</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G546" t="inlineStr"/>
@@ -16311,12 +16311,12 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>Lo Pak Man.</t>
+          <t>Should we use addition or subtraction for the two equations?</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G547" t="inlineStr"/>
@@ -16327,11 +16327,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>00:36:51</t>
+          <t>00:36:59</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>Should we use addition or subtraction for the two equations?</t>
+          <t>Addition or subtraction?</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -16356,28 +16356,28 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>00:36:59</t>
+          <t>00:37:02</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>Addition or subtraction?</t>
-        </is>
-      </c>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G549" t="inlineStr"/>
+          <t>Subtraction.</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -16385,28 +16385,28 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>00:37:02</t>
+          <t>00:37:03</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>Subtraction.</t>
-        </is>
-      </c>
-      <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>Positive two X and positive two X.</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -16414,11 +16414,11 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>00:37:03</t>
+          <t>00:37:05</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -16427,12 +16427,12 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>Positive two X and positive two X.</t>
+          <t>If you want elimination, shouldn't we use subtraction?</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G551" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>If you want elimination, shouldn't we use subtraction?</t>
+          <t>Use subtraction, okay?</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -16485,12 +16485,12 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>Use subtraction, okay?</t>
+          <t>Two X minus two X is...?</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G553" t="inlineStr"/>
@@ -16501,28 +16501,32 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>00:37:05</t>
+          <t>00:37:15</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>Two X minus two X is...?</t>
+          <t>Zero.</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G554" t="inlineStr"/>
+          <t>7 - context</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -16534,28 +16538,24 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>Zero.</t>
+          <t>It became zero.</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>7 - context</t>
-        </is>
-      </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>5 - revoicing</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -16576,12 +16576,12 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>It became zero.</t>
+          <t>Two X minus two X is zero, okay?</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>5 - revoicing</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G556" t="inlineStr"/>
@@ -16605,12 +16605,12 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>Two X minus two X is zero, okay?</t>
+          <t>If you add them together, what will it be?</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G557" t="inlineStr"/>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>If you add them together, what will it be?</t>
+          <t>Two X plus two X is what?</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -16650,28 +16650,28 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>00:37:15</t>
+          <t>00:37:20</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>Two X plus two X is what?</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G559" t="inlineStr"/>
+          <t>(inaudible)</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -16683,24 +16683,24 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Four X.</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -16721,7 +16721,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>Four X.</t>
+          <t>In that case, the X will not be cancelled.</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -16750,12 +16750,12 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>In that case, the X will not be cancelled.</t>
+          <t>Understand?</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G562" t="inlineStr"/>
@@ -16779,12 +16779,12 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>Understand?</t>
+          <t>Since both of them are positive, you will need to use subtraction.</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G563" t="inlineStr"/>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>Since both of them are positive, you will need to use subtraction.</t>
+          <t>Sit down.</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -16824,11 +16824,11 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>00:37:20</t>
+          <t>00:37:27</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>Sit down.</t>
+          <t>So, we use this- equation one minus equation three.</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -16866,7 +16866,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>So, we use this- equation one minus equation three.</t>
+          <t>We will no longer use equation two.</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -16882,11 +16882,11 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>00:37:27</t>
+          <t>00:37:33</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>We will no longer use equation two.</t>
+          <t>Equation one minus equation three.</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -16924,7 +16924,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Equation one minus equation three.</t>
+          <t>This one minus this one.</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>This one minus this one.</t>
+          <t>After that, two X minus two X will be zero.</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -16969,11 +16969,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>00:37:33</t>
+          <t>00:37:40</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>After that, two X minus two X will be zero.</t>
+          <t>So, three Y- positive three Y and this is negative four Y. Subtraction.</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -17011,12 +17011,12 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>So, three Y- positive three Y and this is negative four Y. Subtraction.</t>
+          <t>Three Y minus negative four Y, okay?</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G571" t="inlineStr"/>
@@ -17040,12 +17040,12 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>Three Y minus negative four Y, okay?</t>
+          <t>This is negative four Y and that is positive three Y.</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G572" t="inlineStr"/>
@@ -17056,11 +17056,11 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>00:37:40</t>
+          <t>00:37:53</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>This is negative four Y and that is positive three Y.</t>
+          <t>Equals to three minus 24.</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>Equals to three minus 24.</t>
+          <t>Three minus 24 looks really strange.</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>Three minus 24 looks really strange.</t>
+          <t>It is a negative number, but it is okay to have a negative number.</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -17156,7 +17156,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>It is a negative number, but it is okay to have a negative number.</t>
+          <t>Three minus 24.</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -17172,11 +17172,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>00:37:53</t>
+          <t>00:38:01</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>Three minus 24.</t>
+          <t>So, let it be three minus 24.</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -17214,12 +17214,12 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>So, let it be three minus 24.</t>
+          <t>Well, next, this will become seven Y, right?</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G578" t="inlineStr"/>
@@ -17243,12 +17243,12 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>Well, next, this will become seven Y, right?</t>
+          <t>How about this one?</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G579" t="inlineStr"/>
@@ -17259,11 +17259,11 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>00:38:01</t>
+          <t>00:38:09</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>How about this one?</t>
+          <t>How many?</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -17288,28 +17288,28 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>00:38:09</t>
+          <t>00:38:10</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>How many?</t>
-        </is>
-      </c>
-      <c r="F581" t="inlineStr">
-        <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G581" t="inlineStr"/>
+          <t>Negative 21.</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -17321,11 +17321,11 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -17336,7 +17336,7 @@
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr">
         <is>
-          <t>4 - making a claim</t>
+          <t>2 - relating to another student</t>
         </is>
       </c>
     </row>
@@ -17346,28 +17346,28 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>00:38:10</t>
+          <t>00:38:11</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>Negative 21.</t>
-        </is>
-      </c>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2 - relating to another student</t>
-        </is>
-      </c>
+          <t>Negative 21, right?</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>2 - keeping everyone together</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -17388,12 +17388,12 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>Negative 21, right?</t>
+          <t>So, Y is equal to...</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G584" t="inlineStr"/>
@@ -17404,28 +17404,28 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>00:38:11</t>
+          <t>00:38:13</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>So, Y is equal to...</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr">
-        <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G585" t="inlineStr"/>
+          <t>Negative three.</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr"/>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -17433,28 +17433,28 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>00:38:13</t>
+          <t>00:38:14</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>Negative three.</t>
-        </is>
-      </c>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>Negative three, okay?</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>2 - keeping everyone together</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -17475,12 +17475,12 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>Negative three, okay?</t>
+          <t>Next, put Y equals negative three into any one of the equations above.</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G587" t="inlineStr"/>
@@ -17491,11 +17491,11 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>00:38:14</t>
+          <t>00:38:20</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>Next, put Y equals negative three into any one of the equations above.</t>
+          <t>I will not suggest you putting it into equation three, because it had been multiplied.</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -17520,11 +17520,11 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>00:38:20</t>
+          <t>00:38:24</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>I will not suggest you putting it into equation three, because it had been multiplied.</t>
+          <t>It is more complicated.</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>It is more complicated.</t>
+          <t>So, I will put it into equation one or equation two.</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -17591,12 +17591,12 @@
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>So, I will put it into equation one or equation two.</t>
+          <t>Put it into equation two, okay?</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G591" t="inlineStr"/>
@@ -17607,11 +17607,11 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>00:38:24</t>
+          <t>00:38:29</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>Put it into equation two, okay?</t>
+          <t>So, X minus two times negative three equals 12, okay?</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -17649,12 +17649,12 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>So, X minus two times negative three equals 12, okay?</t>
+          <t>So, X is- this is six and move it to the other side, it becomes six.</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G593" t="inlineStr"/>
@@ -17678,7 +17678,7 @@
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>So, X is- this is six and move it to the other side, it becomes six.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -17694,11 +17694,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>00:38:29</t>
+          <t>00:38:45</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>Negative two times negative three equals positive six.</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>Negative two times negative three equals positive six.</t>
+          <t>Move the six to the other side, it becomes negative six.</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
@@ -17765,7 +17765,7 @@
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>Move the six to the other side, it becomes negative six.</t>
+          <t>Six.</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -17781,11 +17781,11 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>00:38:45</t>
+          <t>00:38:49</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -17794,12 +17794,12 @@
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>Six.</t>
+          <t>So, the solution...</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G598" t="inlineStr"/>
@@ -17810,11 +17810,11 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>00:38:49</t>
+          <t>00:38:56</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>So, the solution...</t>
+          <t>Y equals... what is Y equal to?</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -17852,12 +17852,12 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>Y equals... what is Y equal to?</t>
+          <t>Negative three, right.</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G600" t="inlineStr"/>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>Negative three, right.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -17910,12 +17910,12 @@
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>Any questions?</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G602" t="inlineStr"/>
@@ -17939,12 +17939,12 @@
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>Any questions?</t>
+          <t>Now, the most important point is- I think- this step here.</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G603" t="inlineStr"/>
@@ -17955,11 +17955,11 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>00:38:56</t>
+          <t>00:39:08</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -17968,12 +17968,12 @@
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>Now, the most important point is- I think- this step here.</t>
+          <t>How do we use the method of elimination?</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G604" t="inlineStr"/>
@@ -17997,12 +17997,12 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>How do we use the method of elimination?</t>
+          <t>In the process of elimination- before that, we may need to multiply some, um equation.</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G605" t="inlineStr"/>
@@ -18013,11 +18013,11 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>00:39:08</t>
+          <t>00:39:17</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>In the process of elimination- before that, we may need to multiply some, um equation.</t>
+          <t>By doing that, we will make both numbers of the equations the same.</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -18042,11 +18042,11 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>00:39:17</t>
+          <t>00:39:20</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>By doing that, we will make both numbers of the equations the same.</t>
+          <t>This one multiplied by two will become two and that one is two.</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
@@ -18084,12 +18084,12 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>This one multiplied by two will become two and that one is two.</t>
+          <t>So, they can be subtracted by each other, okay?</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G608" t="inlineStr"/>
@@ -18100,11 +18100,11 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>00:39:20</t>
+          <t>00:39:24</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -18113,12 +18113,12 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>So, they can be subtracted by each other, okay?</t>
+          <t>If you say, if I want to eliminate the Y- earlier I said I want to eliminate the X but if I want to eliminate the Y, one is three and the other is two, what should I do?</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G609" t="inlineStr"/>
@@ -18129,11 +18129,11 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>00:39:24</t>
+          <t>00:39:34</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -18142,12 +18142,12 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>If you say, if I want to eliminate the Y- earlier I said I want to eliminate the X but if I want to eliminate the Y, one is three and the other is two, what should I do?</t>
+          <t>Chong Fong Wai.</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G610" t="inlineStr"/>
@@ -18171,12 +18171,12 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>Chong Fong Wai.</t>
+          <t>If I want to eliminate the Y, I will need to make them the same.</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G611" t="inlineStr"/>
@@ -18200,12 +18200,12 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>If I want to eliminate the Y, I will need to make them the same.</t>
+          <t>So how do we make three and two the same?</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G612" t="inlineStr"/>
@@ -18216,28 +18216,32 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>00:39:34</t>
+          <t>00:39:43</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>So how do we make three and two the same?</t>
+          <t>Find out their LCM.</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G613" t="inlineStr"/>
+          <t>7 - context</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -18245,15 +18249,15 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>00:39:43</t>
+          <t>00:39:44</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -18263,14 +18267,10 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>7 - context</t>
-        </is>
-      </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>4 - restating</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -18291,12 +18291,12 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>Find out their LCM.</t>
+          <t>The LCM of three and two is...?</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>4 - restating</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G615" t="inlineStr"/>
@@ -18307,11 +18307,11 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>00:39:44</t>
+          <t>00:39:48</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -18320,12 +18320,12 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>The LCM of three and two is...?</t>
+          <t>Six.</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G616" t="inlineStr"/>
@@ -18349,12 +18349,12 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>Six.</t>
+          <t>So, three times what is six?</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G617" t="inlineStr"/>
@@ -18365,28 +18365,32 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>00:39:48</t>
+          <t>00:39:50</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>So, three times what is six?</t>
+          <t>Two.</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G618" t="inlineStr"/>
+          <t>7 - context</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -18398,28 +18402,24 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>Two.</t>
+          <t>Times two.</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>7 - context</t>
-        </is>
-      </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>5 - revoicing</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -18440,12 +18440,12 @@
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>Times two.</t>
+          <t>If three time two, then, the whole equation- equation one will need to be multiplied by two.</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>5 - revoicing</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G620" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>If three time two, then, the whole equation- equation one will need to be multiplied by two.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -18498,12 +18498,12 @@
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>How about this one?</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G622" t="inlineStr"/>
@@ -18527,7 +18527,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>How about this one?</t>
+          <t>Two times what?</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -18543,28 +18543,32 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>00:39:50</t>
+          <t>00:39:57</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>Two times what?</t>
+          <t>Three.</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G624" t="inlineStr"/>
+          <t>7 - context</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -18576,28 +18580,24 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>Three.</t>
+          <t>Two times three.</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>7 - context</t>
-        </is>
-      </c>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>4 - making a claim</t>
-        </is>
-      </c>
+          <t>5 - revoicing</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -18618,12 +18618,12 @@
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>Two times three.</t>
+          <t>It is six again.</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>5 - revoicing</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G626" t="inlineStr"/>
@@ -18647,7 +18647,7 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>It is six again.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
@@ -18676,12 +18676,12 @@
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>So, we need to multiply the lower equation by three, okay?</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G628" t="inlineStr"/>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>So, we need to multiply the lower equation by three, okay?</t>
+          <t>Understand?</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -18721,11 +18721,11 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>00:39:57</t>
+          <t>00:40:02</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -18734,12 +18734,12 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>Understand?</t>
+          <t>If you want to eliminate the Y, you will need to do more things.</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G630" t="inlineStr"/>
@@ -18750,11 +18750,11 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>00:40:02</t>
+          <t>00:40:06</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>If you want to eliminate the Y, you will need to do more things.</t>
+          <t>If you multiply the upper equation by two and the lower equation by three, that will create equation three and equation four.</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>If you multiply the upper equation by two and the lower equation by three, that will create equation three and equation four.</t>
+          <t>Equation three and equation four.</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -18808,11 +18808,11 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>00:40:06</t>
+          <t>00:40:12</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>Equation three and equation four.</t>
+          <t>Then, we can add the two equations together.</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
@@ -18850,12 +18850,12 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>Then, we can add the two equations together.</t>
+          <t>One is positive six Y and one is negative six Y, okay?</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G634" t="inlineStr"/>
@@ -18879,7 +18879,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>One is positive six Y and one is negative six Y, okay?</t>
+          <t>Understand?</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -18895,11 +18895,11 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>00:40:12</t>
+          <t>00:40:19</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -18908,12 +18908,12 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>Understand?</t>
+          <t>Try it out at home.</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>2 - keeping everyone together</t>
+          <t>1 - none</t>
         </is>
       </c>
       <c r="G636" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Try it out at home.</t>
+          <t>Since we only have one class today, (inaudible).</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
@@ -18953,11 +18953,11 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>00:40:19</t>
+          <t>00:40:24</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>Since we only have one class today, (inaudible).</t>
+          <t>Well, um, go back and try out number five to eight.</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -18995,7 +18995,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>Well, um, go back and try out number five to eight.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>Go back and do number five to eight.</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -19053,7 +19053,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>Go back and do number five to eight.</t>
+          <t>Okay?</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>Okay?</t>
+          <t>That is not too many.</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -19098,11 +19098,11 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>00:40:24</t>
+          <t>00:40:35</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>That is not too many.</t>
+          <t>It should be the day after tomorrow- do we have class on the day after tomorrow?</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>It should be the day after tomorrow- do we have class on the day after tomorrow?</t>
+          <t>Day six.</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
@@ -19169,7 +19169,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>Day six.</t>
+          <t>We have class on day six, right?</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -19185,11 +19185,11 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>00:40:35</t>
+          <t>00:40:41</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>We have class on day six, right?</t>
+          <t>Okay, we will talk about it more on day six, because we will have a test tomorrow.</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -19227,12 +19227,12 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>Okay, we will talk about it more on day six, because we will have a test tomorrow.</t>
+          <t>Do you remember?</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>2 - keeping everyone together</t>
         </is>
       </c>
       <c r="G647" t="inlineStr"/>
@@ -19243,28 +19243,28 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>00:40:41</t>
+          <t>00:40:44</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>Do you remember?</t>
-        </is>
-      </c>
-      <c r="F648" t="inlineStr">
-        <is>
-          <t>2 - keeping everyone together</t>
-        </is>
-      </c>
-      <c r="G648" t="inlineStr"/>
+          <t>What?</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -19272,20 +19272,20 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>00:40:44</t>
+          <t>00:40:45</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>What?</t>
+          <t>(inaudible)</t>
         </is>
       </c>
       <c r="F649" t="inlineStr"/>
@@ -19305,24 +19305,24 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F650" t="inlineStr"/>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Test.</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -19343,7 +19343,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>Test.</t>
+          <t>The chapter on slopes.</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
@@ -19359,11 +19359,11 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>00:40:45</t>
+          <t>00:40:47</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>The chapter on slopes.</t>
+          <t>Day five, right?</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -19401,7 +19401,7 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>Day five, right?</t>
+          <t>Distance formula.</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -19430,7 +19430,7 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>Distance formula.</t>
+          <t>The chapter on slopes.</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
@@ -19459,12 +19459,12 @@
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>The chapter on slopes.</t>
+          <t>Any impressions?</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>1 - none</t>
+          <t>8 - press for  accuracy</t>
         </is>
       </c>
       <c r="G655" t="inlineStr"/>
@@ -19475,28 +19475,28 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>00:40:47</t>
+          <t>00:40:49</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>Any impressions?</t>
-        </is>
-      </c>
-      <c r="F656" t="inlineStr">
-        <is>
-          <t>8 - press for  accuracy</t>
-        </is>
-      </c>
-      <c r="G656" t="inlineStr"/>
+          <t>Slope?</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>4 - making a claim</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -19504,11 +19504,11 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>00:40:49</t>
+          <t>00:40:53</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -19517,13 +19517,13 @@
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>Slope?</t>
+          <t>No.</t>
         </is>
       </c>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
         <is>
-          <t>4 - making a claim</t>
+          <t>2 - relating to another student</t>
         </is>
       </c>
     </row>
@@ -19533,28 +19533,28 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>00:40:53</t>
+          <t>00:40:55</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>No.</t>
-        </is>
-      </c>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>2 - relating to another student</t>
-        </is>
-      </c>
+          <t>This equation.</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -19562,11 +19562,11 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>00:40:55</t>
+          <t>00:40:58</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>This equation.</t>
+          <t>Parallel.</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -19604,7 +19604,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Parallel.</t>
+          <t>Straight.</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -19633,7 +19633,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Straight.</t>
+          <t>I have just talked about it.</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -19649,11 +19649,11 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>00:40:58</t>
+          <t>00:41:02</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>I have just talked about it.</t>
+          <t>There is also the distance formula.</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>There is also the distance formula.</t>
+          <t>A B equals- the distance between two coordinates.</t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
@@ -19707,11 +19707,11 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>00:41:02</t>
+          <t>00:41:11</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>A B equals- the distance between two coordinates.</t>
+          <t>Tomorrow- tomorrow, you will be tested on chapter eight.</t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
@@ -19749,7 +19749,7 @@
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>Tomorrow- tomorrow, you will be tested on chapter eight.</t>
+          <t>It seems like all of you have amnesia.</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
@@ -19765,11 +19765,11 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>00:41:11</t>
+          <t>00:41:21</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>It seems like all of you have amnesia.</t>
+          <t>Tomorrow- um, are there any single lined papers?</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
@@ -19794,20 +19794,20 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>00:41:21</t>
+          <t>00:41:24</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Tomorrow- um, are there any single lined papers?</t>
+          <t>No.</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -19823,20 +19823,20 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>00:41:24</t>
+          <t>00:41:31</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>No.</t>
+          <t>Who is in charge of buying the papers?</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -19852,28 +19852,28 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>00:41:31</t>
+          <t>00:41:34</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Who is in charge of buying the papers?</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G669" t="inlineStr"/>
+          <t>(inaudible)</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -19881,28 +19881,28 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>00:41:34</t>
+          <t>00:41:35</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>It is you?</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>It is you?</t>
+          <t>Chan Lap Man?</t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
@@ -19952,7 +19952,7 @@
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Chan Lap Man?</t>
+          <t>Help me buy one more pile of F four- long paper, single lined, white colored, tomorrow.</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Help me buy one more pile of F four- long paper, single lined, white colored, tomorrow.</t>
+          <t>Long paper.</t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
@@ -19997,28 +19997,28 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>00:41:35</t>
+          <t>00:41:44</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Long paper.</t>
-        </is>
-      </c>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr"/>
+          <t>Is the test going to be difficult?</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -20026,28 +20026,28 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>00:41:44</t>
+          <t>00:41:45</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Is the test going to be difficult?</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Not difficult.</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Not difficult.</t>
+          <t>Study for the test.</t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
@@ -20097,7 +20097,7 @@
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Study for the test.</t>
+          <t>Stand up.</t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
@@ -20113,28 +20113,28 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>00:41:45</t>
+          <t>00:41:48</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Stand up.</t>
-        </is>
-      </c>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G678" t="inlineStr"/>
+          <t>Do we need to bring our books?</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -20142,28 +20142,28 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>00:41:48</t>
+          <t>00:41:50</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Do we need to bring our books?</t>
-        </is>
-      </c>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>You don't need to bring books tomorrow, okay?</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -20184,7 +20184,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>You don't need to bring books tomorrow, okay?</t>
+          <t>However, do you remember you have to bring two new books tomorrow?</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -20200,28 +20200,28 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>00:41:50</t>
+          <t>00:41:54</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>However, do you remember you have to bring two new books tomorrow?</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G681" t="inlineStr"/>
+          <t>I remember.</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -20229,20 +20229,20 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>00:41:54</t>
+          <t>00:41:56</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>I remember.</t>
+          <t>(inaudible)</t>
         </is>
       </c>
       <c r="F682" t="inlineStr"/>
@@ -20262,24 +20262,24 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -20287,11 +20287,11 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>00:41:56</t>
+          <t>00:41:57</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Okay.</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
@@ -20316,28 +20316,28 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>00:41:57</t>
+          <t>00:41:59</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>Okay.</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G685" t="inlineStr"/>
+          <t>(inaudible)</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -20345,28 +20345,28 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>00:41:59</t>
+          <t>00:42:02</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Goodbye class.</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -20374,28 +20374,28 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>00:42:02</t>
+          <t>00:42:03</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>Goodbye class.</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G687" t="inlineStr"/>
+          <t>Goodbye and thank you Mr. Ho.</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -20403,20 +20403,20 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>00:42:03</t>
+          <t>00:42:11</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>Goodbye and thank you Mr. Ho.</t>
+          <t>(inaudible)</t>
         </is>
       </c>
       <c r="F688" t="inlineStr"/>
@@ -20432,28 +20432,28 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>00:42:11</t>
+          <t>00:42:12</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>(inaudible)</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
+          <t>Sit down and be quiet.</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>1 - none</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -20474,7 +20474,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>Sit down and be quiet.</t>
+          <t>The student on duty, come up and clean up the blackboard.</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -20483,35 +20483,6 @@
         </is>
       </c>
       <c r="G690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>00:42:12</t>
-        </is>
-      </c>
-      <c r="C691" t="n">
-        <v>388</v>
-      </c>
-      <c r="D691" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>The student on duty, come up and clean up the blackboard.</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr">
-        <is>
-          <t>1 - none</t>
-        </is>
-      </c>
-      <c r="G691" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
